--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/jm_vergara_alumnos_upm_es/Documents/MUSE/2 SEMESTRE/CE1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{0E9AD158-389B-409F-8952-FB3AB81CB6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F44544DF-4AA7-480A-A71E-9443D9E7B50C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6ABBF-248E-40D3-AFDC-F84FA2AE79F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Equipo</t>
   </si>
@@ -79,15 +79,9 @@
     <t>Orbita</t>
   </si>
   <si>
-    <t>Potencia</t>
-  </si>
-  <si>
     <t>Porcentaje en funcionamiento [%]</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Transceiver</t>
   </si>
   <si>
@@ -103,15 +97,6 @@
     <t>Raspberry Pi</t>
   </si>
   <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
     <t>POTENCIA</t>
   </si>
   <si>
@@ -122,12 +107,55 @@
   </si>
   <si>
     <t>Margen</t>
+  </si>
+  <si>
+    <t>Sensor de Nadir</t>
+  </si>
+  <si>
+    <t>Magnetopar</t>
+  </si>
+  <si>
+    <t>Rueda de Reacción</t>
+  </si>
+  <si>
+    <t>Magnetómetro (3-axis)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Potencia en mW</t>
+  </si>
+  <si>
+    <t>Potencia [W]</t>
+  </si>
+  <si>
+    <t>Masa [g]</t>
+  </si>
+  <si>
+    <t>Precio [€]</t>
+  </si>
+  <si>
+    <t>Total [W]</t>
+  </si>
+  <si>
+    <t>Total [g]</t>
+  </si>
+  <si>
+    <t>Total [€]</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="185" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,11 +181,51 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -166,30 +234,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -214,7 +322,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,7 +624,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
@@ -591,7 +699,7 @@
         <f>B3*D3</f>
         <v>5800</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -605,187 +713,451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CE047-54C0-452F-BD81-71CC945AE398}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A2" sqref="A2:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6">
+        <f>D4*E4*F4/100</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <f>B4*E4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I15" si="0">C4*E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <f t="shared" ref="H5:H15" si="1">B5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <f>B4*C4*D4/100</f>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:G13" si="2">D6*E6*F6/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E5:E12" si="0">B6*C6*D6/100</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="D8" s="10">
+        <f>0.5/1000</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>100</v>
+      </c>
+      <c r="G8" s="10">
+        <f>D8*E8*F8/100</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>66.349999999999994</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.76</v>
+      </c>
+      <c r="D9" s="10">
+        <f>0.36/1000</f>
+        <v>3.5999999999999997E-4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>100</v>
+      </c>
+      <c r="G9" s="10">
+        <f>D9*E9*F9/100</f>
+        <v>3.5999999999999997E-4</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>4.76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5">
+        <v>90</v>
+      </c>
+      <c r="D10" s="13">
+        <f>150/1000</f>
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
+        <v>30</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.13499999999999998</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14">
+        <f>120/1000</f>
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>30</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="2"/>
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>100</v>
+      </c>
+      <c r="G15" s="6">
+        <f>D15*E15*F15/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>0.4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>0.05</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <f>B14*C14*D14/100</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <f>SUM(E4:E14)</f>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17">
-        <f>2.5-E16</f>
-        <v>1.95</v>
-      </c>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <f>SUM(G4:G15)</f>
+        <v>0.79386000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <f>SUM(H4:H15)</f>
+        <v>186.5</v>
+      </c>
+      <c r="I17" s="7">
+        <f>SUM(I4:I15)</f>
+        <v>341.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <f>2.5-G17</f>
+        <v>1.70614</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6ABBF-248E-40D3-AFDC-F84FA2AE79F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA284801-44FA-4477-A35F-C8B94CBE9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>Rueda de Reacción</t>
   </si>
   <si>
-    <t>Magnetómetro (3-axis)</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>IMU (Magnetómetro (3-axis) + 6DOF)</t>
   </si>
 </sst>
 </file>
@@ -153,8 +153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="185" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -240,47 +240,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,7 +716,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,424 +729,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>100</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>D4*E4*F4/100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>B4*E4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" ref="I4:I15" si="0">C4*E4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <f t="shared" ref="H5:H15" si="1">B5*E5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>10</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f t="shared" ref="G6:G13" si="2">D6*E6*F6/100</f>
         <v>0.1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>7.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>66.349999999999994</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f>0.5/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>100</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f>D8*E8*F8/100</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>66.349999999999994</v>
       </c>
       <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="D9" s="9">
+        <f>0.48/1000</f>
+        <v>4.7999999999999996E-4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9">
+        <f>D9*E9*F9/100</f>
+        <v>4.7999999999999996E-4</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
+      <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4.76</v>
-      </c>
-      <c r="D9" s="10">
-        <f>0.36/1000</f>
-        <v>3.5999999999999997E-4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>100</v>
-      </c>
-      <c r="G9" s="10">
-        <f>D9*E9*F9/100</f>
-        <v>3.5999999999999997E-4</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>4.76</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>55</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>90</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f>150/1000</f>
         <v>0.15</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>30</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>0.13499999999999998</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
         <v>28</v>
       </c>
-      <c r="K10" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13">
         <f>120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>30</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <f t="shared" si="2"/>
         <v>0.10799999999999998</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>36</v>
+      <c r="I11" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
         <v>28</v>
       </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
         <v>0.4</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>100</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>0.05</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>100</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <f>D15*E15*F15/100</f>
         <v>0.05</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="16"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
         <f>SUM(G4:G15)</f>
-        <v>0.79386000000000001</v>
-      </c>
-      <c r="H17" s="7">
+        <v>0.79398000000000002</v>
+      </c>
+      <c r="H17" s="6">
         <f>SUM(H4:H15)</f>
-        <v>186.5</v>
-      </c>
-      <c r="I17" s="7">
+        <v>199.5</v>
+      </c>
+      <c r="I17" s="6">
         <f>SUM(I4:I15)</f>
-        <v>341.11</v>
+        <v>341.3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <f>2.5-G17</f>
-        <v>1.70614</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+        <v>1.7060200000000001</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/jm_vergara_alumnos_upm_es/Documents/MUSE/2 SEMESTRE/CE1/Copias Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA284801-44FA-4477-A35F-C8B94CBE9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{AA284801-44FA-4477-A35F-C8B94CBE9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC8FFE9-30CE-4EF6-BDA8-636DC7AD53F9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Equipo</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>IMU (Magnetómetro (3-axis) + 6DOF)</t>
+  </si>
+  <si>
+    <t>Antena</t>
+  </si>
+  <si>
+    <t>DC-DC</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/en/products/lt3693.html</t>
   </si>
 </sst>
 </file>
@@ -156,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +177,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,9 +299,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -322,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -618,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B9FB3B-5913-41A7-BBC4-0FF86AE8611A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
@@ -703,9 +726,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>C4*B4</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="F4">
+        <f>B4*D4</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{5FC7056A-894E-4958-AFA0-8BCCA595DD00}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{6CEDF005-2C12-45D7-B940-20CA9B795A30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -713,13 +762,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CE047-54C0-452F-BD81-71CC945AE398}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
@@ -764,7 +813,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4"/>
@@ -798,12 +847,12 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I15" si="0">C4*E4</f>
+        <f t="shared" ref="I4:I16" si="0">C4*E4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4"/>
@@ -813,355 +862,378 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H15" si="1">B5*E5</f>
+        <f t="shared" ref="H5:H16" si="1">B5*E5</f>
         <v>0</v>
       </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <f>D6*E6*F6/100</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="5">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6:G13" si="2">D6*E6*F6/100</f>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7:G14" si="2">D7*E7*F7/100</f>
         <v>0.1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>7.5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>66.349999999999994</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <f>0.5/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>100</v>
       </c>
-      <c r="G8" s="9">
-        <f>D8*E8*F8/100</f>
+      <c r="G9" s="9">
+        <f>D9*E9*F9/100</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
         <v>66.349999999999994</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="4">
         <v>4.95</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <f>0.48/1000</f>
         <v>4.7999999999999996E-4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>100</v>
       </c>
-      <c r="G9" s="9">
-        <f>D9*E9*F9/100</f>
+      <c r="G10" s="9">
+        <f>D10*E10*F10/100</f>
         <v>4.7999999999999996E-4</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>27</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>55</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>90</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <f>150/1000</f>
         <v>0.15</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>30</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>0.13499999999999998</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <f>120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>30</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <f t="shared" si="2"/>
         <v>0.10799999999999998</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>27</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>0.4</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <v>100</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G14" s="5">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
         <v>0.05</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>100</v>
       </c>
-      <c r="G15" s="5">
-        <f>D15*E15*F15/100</f>
+      <c r="G16" s="5">
+        <f>D16*E16*F16/100</f>
         <v>0.05</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="15"/>
-    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6">
-        <f>SUM(G4:G15)</f>
-        <v>0.79398000000000002</v>
-      </c>
-      <c r="H17" s="6">
-        <f>SUM(H4:H15)</f>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <f>SUM(G4:G16)</f>
+        <v>0.79438000000000009</v>
+      </c>
+      <c r="H18" s="6">
+        <f>SUM(H4:H16)</f>
         <v>199.5</v>
       </c>
-      <c r="I17" s="6">
-        <f>SUM(I4:I15)</f>
+      <c r="I18" s="6">
+        <f>SUM(I4:I16)</f>
         <v>341.3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <f>2.5-G17</f>
-        <v>1.7060200000000001</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <f>2.5-G18</f>
+        <v>1.7056199999999999</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:H18">
+  <conditionalFormatting sqref="G19:H19">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA284801-44FA-4477-A35F-C8B94CBE9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F07F2E-4422-41F5-9554-C3D316186ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Equipo</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>IMU (Magnetómetro (3-axis) + 6DOF)</t>
+  </si>
+  <si>
+    <t>Antena</t>
+  </si>
+  <si>
+    <t>Voltaje [V]</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>3,3 o 5</t>
   </si>
 </sst>
 </file>
@@ -284,7 +296,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -322,7 +334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -624,12 +636,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -677,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -713,30 +725,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CE047-54C0-452F-BD81-71CC945AE398}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="16" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -748,22 +760,25 @@
         <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -775,34 +790,36 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>100</v>
       </c>
-      <c r="G4" s="5">
-        <f>D4*E4*F4/100</f>
+      <c r="H4" s="5">
+        <f>D4*F4*G4/100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <f>B4*E4</f>
+      <c r="I4" s="5">
+        <f>B4*F4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I15" si="0">C4*E4</f>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J17" si="0">C4*F4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -812,352 +829,419 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <f t="shared" ref="H5:H15" si="1">B5*E5</f>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I17" si="1">B5*F5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
+        <f>C6*F6</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="B7" s="5">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G7" s="5">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6:G13" si="2">D6*E6*F6/100</f>
+      <c r="H7" s="5">
+        <f>D7*F7*G7/100</f>
         <v>0.1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I7" s="5">
+        <f>B7*F7</f>
+        <v>25</v>
+      </c>
+      <c r="J7" s="4">
+        <f>C7*F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="D9" s="9">
+        <f>0.5/1000</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
+      <c r="H9" s="9">
+        <f>D9*F9*G9/100</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>66.349999999999994</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="D10" s="9">
+        <f>0.48/1000</f>
+        <v>4.7999999999999996E-4</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>100</v>
+      </c>
+      <c r="H10" s="9">
+        <f>D10*F10*G10/100</f>
+        <v>4.7999999999999996E-4</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4">
+        <v>90</v>
+      </c>
+      <c r="D11" s="12">
+        <f>150/1000</f>
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>30</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" ref="H7:H15" si="2">D11*F11*G11/100</f>
+        <v>0.13499999999999998</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13">
+        <f>120/1000</f>
+        <v>0.12</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>30</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="2"/>
+        <v>0.10799999999999998</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>21.57</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5.55</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>100</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5">
+        <f>D17*F17*G17/100</f>
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>66.349999999999994</v>
-      </c>
-      <c r="D8" s="9">
-        <f>0.5/1000</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>100</v>
-      </c>
-      <c r="G8" s="9">
-        <f>D8*E8*F8/100</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="0"/>
-        <v>66.349999999999994</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="4">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4.95</v>
-      </c>
-      <c r="D9" s="9">
-        <f>0.48/1000</f>
-        <v>4.7999999999999996E-4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>100</v>
-      </c>
-      <c r="G9" s="9">
-        <f>D9*E9*F9/100</f>
-        <v>4.7999999999999996E-4</v>
-      </c>
-      <c r="H9" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="0"/>
-        <v>4.95</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4">
-        <v>55</v>
-      </c>
-      <c r="C10" s="4">
-        <v>90</v>
-      </c>
-      <c r="D10" s="12">
-        <f>150/1000</f>
-        <v>0.15</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>30</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="2"/>
-        <v>0.13499999999999998</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="13">
-        <f>120/1000</f>
-        <v>0.12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5">
-        <v>30</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="2"/>
-        <v>0.10799999999999998</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>100</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>100</v>
-      </c>
-      <c r="G15" s="5">
-        <f>D15*E15*F15/100</f>
-        <v>0.05</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6">
-        <f>SUM(G4:G15)</f>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <f>SUM(H4:H17)</f>
         <v>0.79398000000000002</v>
       </c>
-      <c r="H17" s="6">
-        <f>SUM(H4:H15)</f>
-        <v>199.5</v>
-      </c>
-      <c r="I17" s="6">
-        <f>SUM(I4:I15)</f>
-        <v>341.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="I19" s="6">
+        <f>SUM(I4:I17)</f>
+        <v>233.5</v>
+      </c>
+      <c r="J19" s="6">
+        <f>SUM(J4:J17)</f>
+        <v>1546.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <f>2.5-G17</f>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <f>2.5-H19</f>
         <v>1.7060200000000001</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:H18">
+  <conditionalFormatting sqref="H20:I20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/jm_vergara_alumnos_upm_es/Documents/MUSE/2 SEMESTRE/CE1/Copias Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{AA284801-44FA-4477-A35F-C8B94CBE9D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC8FFE9-30CE-4EF6-BDA8-636DC7AD53F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458979AA-8A22-49D4-A224-B74D44A6B16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Equipo</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>https://www.analog.com/en/products/lt3693.html</t>
+  </si>
+  <si>
+    <t>ADC</t>
   </si>
 </sst>
 </file>
@@ -296,14 +299,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,16 +646,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B9FB3B-5913-41A7-BBC4-0FF86AE8611A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -700,7 +703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -726,7 +729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -762,30 +765,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CE047-54C0-452F-BD81-71CC945AE398}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -812,8 +815,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4"/>
@@ -825,7 +828,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -847,12 +850,12 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I16" si="0">C4*E4</f>
+        <f t="shared" ref="I4:I17" si="0">C4*E4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4"/>
@@ -862,17 +865,21 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H16" si="1">B5*E5</f>
+        <f t="shared" ref="H5:H17" si="1">B5*E5</f>
         <v>0</v>
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="7">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1200</v>
+      </c>
       <c r="D6" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -889,11 +896,13 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>25</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
         <v>1</v>
@@ -905,20 +914,20 @@
         <v>10</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:G14" si="2">D7*E7*F7/100</f>
+        <f t="shared" ref="G7:G15" si="2">D7*E7*F7/100</f>
         <v>0.1</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="4"/>
@@ -930,7 +939,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -969,7 +978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1008,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1085,8 +1094,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="6"/>
@@ -1101,134 +1110,152 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>21.57</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>0.4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F15" s="5">
         <v>100</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
         <v>0.05</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <v>100</v>
       </c>
-      <c r="G16" s="5">
-        <f>D16*E16*F16/100</f>
+      <c r="G17" s="5">
+        <f>D17*E17*F17/100</f>
         <v>0.05</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6">
-        <f>SUM(G4:G16)</f>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
+        <f>SUM(G4:G17)</f>
         <v>0.79438000000000009</v>
       </c>
-      <c r="H18" s="6">
-        <f>SUM(H4:H16)</f>
-        <v>199.5</v>
-      </c>
-      <c r="I18" s="6">
-        <f>SUM(I4:I16)</f>
+      <c r="H19" s="6">
+        <f>SUM(H4:H17)</f>
+        <v>224.5</v>
+      </c>
+      <c r="I19" s="6">
+        <f>SUM(I4:I17)</f>
         <v>341.3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5">
-        <f>2.5-G18</f>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <f>2.5-G19</f>
         <v>1.7056199999999999</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G19:H19">
+  <conditionalFormatting sqref="G20:H20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
+  <conditionalFormatting sqref="I20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETSIAE\MUSE\2 SEMESTRE\CE1_Github\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458979AA-8A22-49D4-A224-B74D44A6B16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9968DD-6B09-4049-9B0A-AF851E1A6C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Equipo</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>ADC</t>
+  </si>
+  <si>
+    <t>Paneles solares</t>
+  </si>
+  <si>
+    <t>Bateria</t>
+  </si>
+  <si>
+    <t>DC/DC</t>
   </si>
 </sst>
 </file>
@@ -254,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -650,12 +662,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -703,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -729,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -765,22 +777,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CE047-54C0-452F-BD81-71CC945AE398}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F1" s="18" t="s">
         <v>13</v>
       </c>
@@ -788,7 +800,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -815,7 +827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -828,7 +840,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -850,11 +862,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I17" si="0">C4*E4</f>
+        <f t="shared" ref="I4:I20" si="0">C4*E4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
@@ -865,12 +877,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H17" si="1">B5*E5</f>
+        <f t="shared" ref="H5:H20" si="1">B5*E5</f>
         <v>0</v>
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -894,9 +906,12 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="4">
+        <f>C6*E6</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -926,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
@@ -939,7 +954,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -978,7 +993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1017,7 +1032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1056,7 +1071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1094,7 +1109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1125,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
@@ -1128,7 +1143,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>20</v>
       </c>
@@ -1169,93 +1184,168 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.55</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <f>B17*E17</f>
+        <v>96</v>
+      </c>
+      <c r="I17" s="4">
+        <f>C17*E17</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>725</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <f>B18*E18</f>
+        <v>200</v>
+      </c>
+      <c r="I18" s="4">
+        <f>C18*E18</f>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <f>B19*E19</f>
+        <v>12</v>
+      </c>
+      <c r="I19" s="4">
+        <f>C19*E19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
         <v>0.05</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F20" s="5">
         <v>100</v>
       </c>
-      <c r="G17" s="5">
-        <f>D17*E17*F17/100</f>
+      <c r="G20" s="5">
+        <f>D20*E20*F20/100</f>
         <v>0.05</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <f>SUM(G4:G17)</f>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <f>SUM(G4:G20)</f>
         <v>0.79438000000000009</v>
       </c>
-      <c r="H19" s="6">
-        <f>SUM(H4:H17)</f>
-        <v>224.5</v>
-      </c>
-      <c r="I19" s="6">
-        <f>SUM(I4:I17)</f>
-        <v>341.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="H22" s="6">
+        <f>SUM(H4:H20)</f>
+        <v>532.5</v>
+      </c>
+      <c r="I22" s="6">
+        <f>SUM(I4:I20)</f>
+        <v>7355.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <f>2.5-G19</f>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
+        <f>2.5-G22</f>
         <v>1.7056199999999999</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G20:H20">
+  <conditionalFormatting sqref="G23:H23">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="I23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ETSIAE\MUSE\2 SEMESTRE\CE1_Github\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9968DD-6B09-4049-9B0A-AF851E1A6C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8201D6-72F8-41C4-B364-B82B8E526D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Equipo</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>Rueda de Reacción</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Potencia en mW</t>
   </si>
   <si>
     <t>Potencia [W]</t>
@@ -314,15 +308,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -360,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -662,7 +656,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
@@ -743,7 +737,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -763,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -777,13 +771,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CE047-54C0-452F-BD81-71CC945AE398}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -792,24 +786,24 @@
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="18" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -818,16 +812,16 @@
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -840,7 +834,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -866,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
@@ -882,9 +876,9 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7">
         <v>32</v>
@@ -911,7 +905,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -941,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
@@ -954,7 +948,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -986,16 +980,10 @@
         <f t="shared" si="0"/>
         <v>66.349999999999994</v>
       </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4">
         <v>15</v>
@@ -1025,14 +1013,8 @@
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1064,14 +1046,8 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1079,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13">
         <f>120/1000</f>
@@ -1100,16 +1076,10 @@
         <v>12</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
@@ -1125,9 +1095,9 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7">
@@ -1143,7 +1113,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1171,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>20</v>
       </c>
@@ -1185,8 +1155,8 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>42</v>
+      <c r="A17" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="B17" s="4">
         <v>48</v>
@@ -1210,8 +1180,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>41</v>
+      <c r="A18" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="4">
         <v>25</v>
@@ -1235,8 +1205,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>43</v>
+      <c r="A19" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="4">
         <v>12</v>

--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8201D6-72F8-41C4-B364-B82B8E526D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8612453-ED5D-41CA-82C7-A1D900ECBD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Equipo</t>
   </si>
@@ -161,6 +161,39 @@
   </si>
   <si>
     <t>DC/DC</t>
+  </si>
+  <si>
+    <t>ESTRUCTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Inferior </t>
+  </si>
+  <si>
+    <t>Base superior</t>
+  </si>
+  <si>
+    <t>Panel Z</t>
+  </si>
+  <si>
+    <t>Panel Y</t>
+  </si>
+  <si>
+    <t>Panel X</t>
+  </si>
+  <si>
+    <t>Panel Z v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandeja estandar </t>
+  </si>
+  <si>
+    <t>Separador 8</t>
+  </si>
+  <si>
+    <t>separador 10</t>
+  </si>
+  <si>
+    <t>separador 25</t>
   </si>
 </sst>
 </file>
@@ -257,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,9 +347,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -354,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -656,12 +692,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -709,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -735,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -771,22 +807,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CE047-54C0-452F-BD81-71CC945AE398}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
@@ -794,7 +830,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -821,7 +857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -834,488 +870,671 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>100</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>D4*E4*F4/100</f>
         <v>0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>B4*E4</f>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I20" si="0">C4*E4</f>
+        <f t="shared" ref="I4:I31" si="0">C4*E4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <f t="shared" ref="H5:H20" si="1">B5*E5</f>
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7">
-        <v>32</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
-        <f>D6*E6*F6/100</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <f>C6*E6</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" ref="G7:G15" si="2">D7*E7*F7/100</f>
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5">
+        <v>67</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
+        <f t="shared" ref="H16:H31" si="1">B16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="7">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <f>D17*E17*F17/100</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <f>C17*E17</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" ref="G18:G26" si="2">D18*E18*F18/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B20" s="4">
         <v>7.5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C20" s="4">
         <v>66.349999999999994</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D20" s="9">
         <f>0.5/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F20" s="4">
         <v>100</v>
       </c>
-      <c r="G9" s="9">
-        <f>D9*E9*F9/100</f>
+      <c r="G20" s="9">
+        <f>D20*E20*F20/100</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I20" s="4">
         <f t="shared" si="0"/>
         <v>66.349999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C21" s="4">
         <v>4.95</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D21" s="9">
         <f>0.48/1000</f>
         <v>4.7999999999999996E-4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F21" s="11">
         <v>100</v>
       </c>
-      <c r="G10" s="9">
-        <f>D10*E10*F10/100</f>
+      <c r="G21" s="9">
+        <f>D21*E21*F21/100</f>
         <v>4.7999999999999996E-4</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H21" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I21" s="4">
         <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B22" s="4">
         <v>55</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C22" s="4">
         <v>90</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D22" s="12">
         <f>150/1000</f>
         <v>0.15</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F22" s="11">
         <v>30</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G22" s="9">
         <f t="shared" si="2"/>
         <v>0.13499999999999998</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B23" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D23" s="13">
         <f>120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E23" s="5">
         <v>3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F23" s="5">
         <v>30</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G23" s="13">
         <f t="shared" si="2"/>
         <v>0.10799999999999998</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H23" s="14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
         <v>21.57</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
         <v>3.3</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
         <v>0.4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F26" s="5">
         <v>100</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G26" s="5">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B28" s="4">
         <v>48</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C28" s="4">
         <v>4.55</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
-        <f>B17*E17</f>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <f>B28*E28</f>
         <v>96</v>
       </c>
-      <c r="I17" s="4">
-        <f>C17*E17</f>
+      <c r="I28" s="4">
+        <f>C28*E28</f>
         <v>9.1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B29" s="4">
         <v>25</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C29" s="4">
         <v>725</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
         <v>8</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <f>B18*E18</f>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <f>B29*E29</f>
         <v>200</v>
       </c>
-      <c r="I18" s="4">
-        <f>C18*E18</f>
+      <c r="I29" s="4">
+        <f>C29*E29</f>
         <v>5800</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B30" s="4">
         <v>12</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C30" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <f>B19*E19</f>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
+        <f>B30*E30</f>
         <v>12</v>
       </c>
-      <c r="I19" s="4">
-        <f>C19*E19</f>
+      <c r="I30" s="4">
+        <f>C30*E30</f>
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5">
         <v>0.05</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F31" s="5">
         <v>100</v>
       </c>
-      <c r="G20" s="5">
-        <f>D20*E20*F20/100</f>
+      <c r="G31" s="5">
+        <f>D31*E31*F31/100</f>
         <v>0.05</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
-        <f>SUM(G4:G20)</f>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <f>SUM(G4:G31)</f>
         <v>0.79438000000000009</v>
       </c>
-      <c r="H22" s="6">
-        <f>SUM(H4:H20)</f>
+      <c r="H33" s="6">
+        <f>SUM(H4:H31)</f>
         <v>532.5</v>
       </c>
-      <c r="I22" s="6">
-        <f>SUM(I4:I20)</f>
+      <c r="I33" s="6">
+        <f>SUM(I4:I31)</f>
         <v>7355.4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5">
-        <f>2.5-G22</f>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <f>2.5-G33</f>
         <v>1.7056199999999999</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G23:H23">
+  <conditionalFormatting sqref="G34:H34">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  <conditionalFormatting sqref="I34">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\GitHub\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8612453-ED5D-41CA-82C7-A1D900ECBD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781887F-A192-4F85-877C-038407BF0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -344,11 +344,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492CE047-54C0-452F-BD81-71CC945AE398}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,10 +823,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
@@ -916,15 +916,24 @@
       <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <f>B6*500/1000</f>
+        <v>5</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="4">
+        <f>B6*E6</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <f>H6*500/1000</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -933,15 +942,24 @@
       <c r="B7" s="4">
         <v>9</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <f t="shared" ref="C7:C15" si="1">B7*500/1000</f>
+        <v>4.5</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7:H15" si="2">B7*E7</f>
+        <v>9</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ref="I7:I15" si="3">H7*500/1000</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -950,15 +968,24 @@
       <c r="B8" s="4">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -967,15 +994,24 @@
       <c r="B9" s="4">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>2</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -984,15 +1020,24 @@
       <c r="B10" s="4">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>3</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -1001,15 +1046,24 @@
       <c r="B11" s="4">
         <v>15</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
         <v>2</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -1018,15 +1072,24 @@
       <c r="B12" s="4">
         <v>0.13</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.52</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -1035,15 +1098,24 @@
       <c r="B13" s="4">
         <v>0.17</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <v>4</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.68</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.34</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -1052,32 +1124,50 @@
       <c r="B14" s="4">
         <v>0.43</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.215</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <v>4</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.72</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="5">
         <v>67</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>33.5</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -1090,7 +1180,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
-        <f t="shared" ref="H16:H31" si="1">B16*E16</f>
+        <f t="shared" ref="H16:H31" si="4">B16*E16</f>
         <v>0</v>
       </c>
       <c r="I16" s="4"/>
@@ -1142,11 +1232,11 @@
         <v>10</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ref="G18:G26" si="2">D18*E18*F18/100</f>
+        <f t="shared" ref="G18:G26" si="5">D18*E18*F18/100</f>
         <v>0.1</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="I18" s="4">
@@ -1192,7 +1282,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="I20" s="4">
@@ -1225,7 +1315,7 @@
         <v>4.7999999999999996E-4</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="I21" s="4">
@@ -1254,11 +1344,11 @@
         <v>30</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.13499999999999998</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>165</v>
       </c>
       <c r="I22" s="4">
@@ -1287,11 +1377,11 @@
         <v>30</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.10799999999999998</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -1308,7 +1398,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H24" s="6"/>
@@ -1348,11 +1438,11 @@
         <v>100</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26" s="4">
@@ -1468,7 +1558,7 @@
         <v>0.05</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31" s="4">
@@ -1502,11 +1592,11 @@
       </c>
       <c r="H33" s="6">
         <f>SUM(H4:H31)</f>
-        <v>532.5</v>
+        <v>744.42000000000007</v>
       </c>
       <c r="I33" s="6">
         <f>SUM(I4:I31)</f>
-        <v>7355.4</v>
+        <v>7461.36</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1522,7 +1612,10 @@
         <f>2.5-G33</f>
         <v>1.7056199999999999</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="5">
+        <f>1330-H33</f>
+        <v>585.57999999999993</v>
+      </c>
       <c r="I34" s="5"/>
     </row>
   </sheetData>

--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8612453-ED5D-41CA-82C7-A1D900ECBD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9D4DDE-9D2B-45F5-B2A6-9585C52517A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -344,15 +344,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -692,12 +692,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -771,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -810,27 +810,27 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F1" s="19" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -857,7 +857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -870,11 +870,13 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>530</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
@@ -889,14 +891,14 @@
       </c>
       <c r="H4" s="4">
         <f>B4*E4</f>
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" ref="I4:I31" si="0">C4*E4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>42</v>
       </c>
@@ -909,7 +911,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>44</v>
       </c>
@@ -926,7 +928,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>45</v>
       </c>
@@ -943,7 +945,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>48</v>
       </c>
@@ -960,7 +962,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
@@ -977,7 +979,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>49</v>
       </c>
@@ -994,7 +996,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>46</v>
       </c>
@@ -1011,7 +1013,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>50</v>
       </c>
@@ -1028,7 +1030,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>51</v>
       </c>
@@ -1045,7 +1047,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>52</v>
       </c>
@@ -1062,8 +1064,8 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="5">
@@ -1079,7 +1081,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1097,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
@@ -1167,7 +1169,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1200,7 +1202,7 @@
         <v>66.349999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1266,7 +1268,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1316,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -1332,7 +1334,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>20</v>
       </c>
@@ -1373,7 +1375,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>40</v>
       </c>
@@ -1398,7 +1400,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>39</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1487,7 +1489,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>22</v>
       </c>
@@ -1502,14 +1504,14 @@
       </c>
       <c r="H33" s="6">
         <f>SUM(H4:H31)</f>
-        <v>532.5</v>
+        <v>1062.5</v>
       </c>
       <c r="I33" s="6">
         <f>SUM(I4:I31)</f>
         <v>7355.4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>23</v>
       </c>

--- a/Precios_Masas.xlsx
+++ b/Precios_Masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\MEng Space Systems (Local)\2. CE1\Educational-CubeSat-Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\GitHub\Educational-CubeSat-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9D4DDE-9D2B-45F5-B2A6-9585C52517A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DA909E-01D5-4A89-B794-F1A22B805204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{439CE550-1418-4FDB-BAEB-156DAC196521}"/>
   </bookViews>
   <sheets>
     <sheet name="Masas-Precios" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -692,12 +692,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -771,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -810,19 +810,19 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>28</v>
@@ -857,7 +857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>42</v>
       </c>
@@ -911,177 +911,237 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="4">
         <v>9</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>4.5</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="4">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="4">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4">
+        <v>7.5</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="4">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="4">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>4.5</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>2</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="4">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="4">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>3</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="4">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="4">
         <v>15</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>7.5</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
         <v>2</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="4">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="4">
         <v>0.13</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="4">
         <v>0.17</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <v>4</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H13" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="4">
         <v>0.43</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>0.215</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <v>4</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="5">
         <v>67</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>33.5</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="5">
+        <v>67</v>
+      </c>
+      <c r="I15" s="5">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1157,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1126,7 +1186,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -1156,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1229,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1202,7 +1262,7 @@
         <v>66.349999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1235,7 +1295,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1268,7 +1328,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +1376,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
@@ -1334,7 +1394,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1362,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>20</v>
       </c>
@@ -1375,7 +1435,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>40</v>
       </c>
@@ -1400,7 +1460,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>39</v>
       </c>
@@ -1425,7 +1485,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>41</v>
       </c>
@@ -1450,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1489,7 +1549,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>22</v>
       </c>
@@ -1504,14 +1564,14 @@
       </c>
       <c r="H33" s="6">
         <f>SUM(H4:H31)</f>
-        <v>1062.5</v>
+        <v>1274.42</v>
       </c>
       <c r="I33" s="6">
         <f>SUM(I4:I31)</f>
-        <v>7355.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7461.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>23</v>
       </c>
